--- a/Scrum Artifacts/Sprint Planning.xlsx
+++ b/Scrum Artifacts/Sprint Planning.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="49">
   <si>
     <t>Scrum Master</t>
   </si>
@@ -55,7 +55,7 @@
     <t>Zarif</t>
   </si>
   <si>
-    <t>Task</t>
+    <t>Work Item</t>
   </si>
   <si>
     <t>Task Breakdown</t>
@@ -67,10 +67,16 @@
     <t>Story Points (Hours) 1sp:1hr</t>
   </si>
   <si>
-    <t>Start</t>
+    <t>Complexity</t>
   </si>
   <si>
-    <t>End</t>
+    <t>Start Date</t>
+  </si>
+  <si>
+    <t>Due Date (Internal)</t>
+  </si>
+  <si>
+    <t>Due Date (External)</t>
   </si>
   <si>
     <t>Status</t>
@@ -85,6 +91,9 @@
     <t>Product Proposal Low-Medium Complexity Features</t>
   </si>
   <si>
+    <t>Medium</t>
+  </si>
+  <si>
     <t>In Progress</t>
   </si>
   <si>
@@ -94,10 +103,16 @@
     <t>Product Proposal High Complexity Features</t>
   </si>
   <si>
+    <t>High</t>
+  </si>
+  <si>
     <t>Environment Setup</t>
   </si>
   <si>
     <t>All</t>
+  </si>
+  <si>
+    <t>Low</t>
   </si>
   <si>
     <t xml:space="preserve"> Will Colaberate to help lower eachothers time</t>
@@ -308,6 +323,14 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -325,19 +348,11 @@
         <color rgb="FF000000"/>
       </bottom>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="43">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -386,58 +401,82 @@
     <xf borderId="9" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="top"/>
     </xf>
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="10" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="top"/>
     </xf>
     <xf borderId="11" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="top"/>
     </xf>
+    <xf borderId="12" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="11" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" vertical="top"/>
+    </xf>
+    <xf borderId="12" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="top"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="13" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="13" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="14" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="top"/>
     </xf>
-    <xf borderId="13" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="14" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" vertical="top"/>
     </xf>
     <xf borderId="9" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="top"/>
     </xf>
-    <xf borderId="14" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="15" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="top"/>
     </xf>
-    <xf borderId="14" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="15" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" vertical="top"/>
     </xf>
-    <xf borderId="14" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="15" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" vertical="top"/>
     </xf>
-    <xf borderId="14" fillId="0" fontId="3" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="15" fillId="0" fontId="3" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" vertical="top"/>
     </xf>
     <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="top"/>
     </xf>
-    <xf borderId="15" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="12" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0" vertical="top"/>
+    <xf borderId="12" fillId="2" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0"/>
+    </xf>
+    <xf borderId="7" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="top"/>
     </xf>
+    <xf borderId="13" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="13" fillId="2" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0" vertical="top"/>
+      <alignment horizontal="right" readingOrder="0"/>
+    </xf>
+    <xf borderId="14" fillId="2" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -986,20 +1025,24 @@
       <c r="D9" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="16" t="s">
         <v>18</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="G9" s="16" t="s">
         <v>20</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I9" s="5"/>
-      <c r="J9" s="3"/>
+      <c r="I9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
@@ -1021,32 +1064,36 @@
       <c r="AC9" s="3"/>
     </row>
     <row r="10">
-      <c r="A10" s="16" t="s">
-        <v>22</v>
+      <c r="A10" s="17" t="s">
+        <v>24</v>
       </c>
-      <c r="B10" s="17" t="s">
-        <v>23</v>
+      <c r="B10" s="18" t="s">
+        <v>25</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="17">
+      <c r="D10" s="18">
         <v>6.0</v>
       </c>
-      <c r="E10" s="18">
+      <c r="E10" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="20">
         <v>45191.0</v>
       </c>
-      <c r="F10" s="18">
+      <c r="G10" s="21">
         <v>45193.0</v>
       </c>
-      <c r="G10" s="17" t="s">
-        <v>24</v>
+      <c r="H10" s="20">
+        <v>45196.0</v>
       </c>
-      <c r="H10" s="19" t="s">
-        <v>25</v>
+      <c r="I10" s="18" t="s">
+        <v>27</v>
       </c>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
+      <c r="J10" s="22" t="s">
+        <v>28</v>
+      </c>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
@@ -1068,30 +1115,34 @@
       <c r="AC10" s="3"/>
     </row>
     <row r="11">
-      <c r="A11" s="20"/>
-      <c r="B11" s="21" t="s">
-        <v>26</v>
+      <c r="A11" s="23"/>
+      <c r="B11" s="24" t="s">
+        <v>29</v>
       </c>
-      <c r="C11" s="21" t="s">
+      <c r="C11" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="21">
+      <c r="D11" s="24">
         <v>8.0</v>
       </c>
-      <c r="E11" s="22">
+      <c r="E11" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" s="25">
         <v>45191.0</v>
       </c>
-      <c r="F11" s="22">
+      <c r="G11" s="21">
         <v>45193.0</v>
       </c>
-      <c r="G11" s="21" t="s">
-        <v>24</v>
+      <c r="H11" s="25">
+        <v>45196.0</v>
       </c>
-      <c r="H11" s="23" t="s">
-        <v>25</v>
+      <c r="I11" s="24" t="s">
+        <v>27</v>
       </c>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
+      <c r="J11" s="26" t="s">
+        <v>28</v>
+      </c>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
@@ -1114,31 +1165,35 @@
     </row>
     <row r="12">
       <c r="A12" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="28">
+        <v>8.0</v>
+      </c>
+      <c r="E12" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" s="30">
+        <v>45191.0</v>
+      </c>
+      <c r="G12" s="31">
+        <v>45193.0</v>
+      </c>
+      <c r="H12" s="32">
+        <v>45194.0</v>
+      </c>
+      <c r="I12" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="24" t="s">
-        <v>27</v>
+      <c r="J12" s="33" t="s">
+        <v>34</v>
       </c>
-      <c r="C12" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" s="25">
-        <v>8.0</v>
-      </c>
-      <c r="E12" s="26">
-        <v>45191.0</v>
-      </c>
-      <c r="F12" s="27">
-        <v>45194.0</v>
-      </c>
-      <c r="G12" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="H12" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
@@ -1160,32 +1215,36 @@
       <c r="AC12" s="3"/>
     </row>
     <row r="13">
-      <c r="A13" s="16" t="s">
-        <v>30</v>
+      <c r="A13" s="17" t="s">
+        <v>35</v>
       </c>
-      <c r="B13" s="17" t="s">
-        <v>31</v>
+      <c r="B13" s="18" t="s">
+        <v>36</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="C13" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="17">
+      <c r="D13" s="18">
         <v>2.0</v>
       </c>
-      <c r="E13" s="18">
+      <c r="E13" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" s="20">
         <v>45191.0</v>
       </c>
-      <c r="F13" s="18">
+      <c r="G13" s="21">
         <v>45195.0</v>
       </c>
-      <c r="G13" s="17" t="s">
-        <v>32</v>
+      <c r="H13" s="20">
+        <v>45196.0</v>
       </c>
-      <c r="H13" s="19" t="s">
-        <v>33</v>
+      <c r="I13" s="18" t="s">
+        <v>37</v>
       </c>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
+      <c r="J13" s="22" t="s">
+        <v>38</v>
+      </c>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
@@ -1207,9 +1266,9 @@
       <c r="AC13" s="3"/>
     </row>
     <row r="14">
-      <c r="A14" s="29"/>
+      <c r="A14" s="34"/>
       <c r="B14" s="5" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>7</v>
@@ -1217,18 +1276,22 @@
       <c r="D14" s="5">
         <v>5.0</v>
       </c>
-      <c r="E14" s="30">
+      <c r="E14" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" s="35">
         <v>45191.0</v>
       </c>
-      <c r="F14" s="31">
+      <c r="G14" s="36">
         <v>45195.0</v>
       </c>
-      <c r="G14" s="5" t="s">
-        <v>32</v>
+      <c r="H14" s="37">
+        <v>45196.0</v>
       </c>
-      <c r="H14" s="13"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
+      <c r="I14" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="J14" s="13"/>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
@@ -1250,9 +1313,9 @@
       <c r="AC14" s="3"/>
     </row>
     <row r="15">
-      <c r="A15" s="29"/>
+      <c r="A15" s="34"/>
       <c r="B15" s="5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>13</v>
@@ -1260,18 +1323,22 @@
       <c r="D15" s="5">
         <v>4.0</v>
       </c>
-      <c r="E15" s="30">
+      <c r="E15" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="35">
         <v>45191.0</v>
       </c>
-      <c r="F15" s="31">
+      <c r="G15" s="36">
         <v>45195.0</v>
       </c>
-      <c r="G15" s="5" t="s">
-        <v>24</v>
+      <c r="H15" s="37">
+        <v>45196.0</v>
       </c>
-      <c r="H15" s="13"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
+      <c r="I15" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J15" s="13"/>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
@@ -1293,9 +1360,9 @@
       <c r="AC15" s="3"/>
     </row>
     <row r="16">
-      <c r="A16" s="29"/>
+      <c r="A16" s="34"/>
       <c r="B16" s="5" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>9</v>
@@ -1303,20 +1370,24 @@
       <c r="D16" s="5">
         <v>7.0</v>
       </c>
-      <c r="E16" s="30">
+      <c r="E16" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" s="35">
         <v>45191.0</v>
       </c>
-      <c r="F16" s="31">
+      <c r="G16" s="36">
         <v>45195.0</v>
       </c>
-      <c r="G16" s="5" t="s">
-        <v>32</v>
+      <c r="H16" s="37">
+        <v>45196.0</v>
       </c>
-      <c r="H16" s="32" t="s">
+      <c r="I16" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
+      <c r="J16" s="38" t="s">
+        <v>42</v>
+      </c>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
@@ -1338,9 +1409,9 @@
       <c r="AC16" s="3"/>
     </row>
     <row r="17">
-      <c r="A17" s="29"/>
+      <c r="A17" s="34"/>
       <c r="B17" s="5" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>12</v>
@@ -1348,20 +1419,24 @@
       <c r="D17" s="5">
         <v>8.0</v>
       </c>
-      <c r="E17" s="30">
+      <c r="E17" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="F17" s="35">
         <v>45191.0</v>
       </c>
-      <c r="F17" s="31">
+      <c r="G17" s="36">
         <v>45195.0</v>
       </c>
-      <c r="G17" s="5" t="s">
-        <v>32</v>
+      <c r="H17" s="37">
+        <v>45196.0</v>
       </c>
-      <c r="H17" s="33" t="s">
-        <v>39</v>
+      <c r="I17" s="5" t="s">
+        <v>37</v>
       </c>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
+      <c r="J17" s="39" t="s">
+        <v>44</v>
+      </c>
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
@@ -1383,28 +1458,32 @@
       <c r="AC17" s="3"/>
     </row>
     <row r="18">
-      <c r="A18" s="20"/>
-      <c r="B18" s="21" t="s">
-        <v>40</v>
+      <c r="A18" s="23"/>
+      <c r="B18" s="24" t="s">
+        <v>45</v>
       </c>
-      <c r="C18" s="21" t="s">
+      <c r="C18" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="21">
+      <c r="D18" s="24">
         <v>3.0</v>
       </c>
-      <c r="E18" s="22">
+      <c r="E18" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="F18" s="25">
         <v>45191.0</v>
       </c>
-      <c r="F18" s="34">
+      <c r="G18" s="41">
         <v>45195.0</v>
       </c>
-      <c r="G18" s="21" t="s">
-        <v>32</v>
+      <c r="H18" s="42">
+        <v>45196.0</v>
       </c>
-      <c r="H18" s="15"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
+      <c r="I18" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="J18" s="15"/>
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
@@ -1458,7 +1537,7 @@
     </row>
     <row r="20">
       <c r="A20" s="5" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -1491,10 +1570,10 @@
     </row>
     <row r="21">
       <c r="A21" s="5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -1526,10 +1605,10 @@
     </row>
     <row r="22">
       <c r="A22" s="5" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -31914,7 +31993,7 @@
     <mergeCell ref="A13:A18"/>
   </mergeCells>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G10:G18">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="I10:I18">
       <formula1>"In Progress,Completed ,Not Started"</formula1>
     </dataValidation>
   </dataValidations>
